--- a/test_initial_states/initial_state_1.xlsx
+++ b/test_initial_states/initial_state_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/aaron_t_wong_vanderbilt_edu/Documents/Desktop/initial_states/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\aaronwong\code\ai_project\test_initial_states\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{092FBDDC-D6F1-431A-8469-71EC27265576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CBA78053-0B0D-4EBF-983D-544247F1F1B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BAED0-83A8-40B8-ADC9-659B72448103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1590" windowWidth="23025" windowHeight="15555" xr2:uid="{65B8699D-C102-4177-9EDB-4160093663D6}"/>
+    <workbookView xWindow="1575" yWindow="2160" windowWidth="23025" windowHeight="15555" xr2:uid="{65B8699D-C102-4177-9EDB-4160093663D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>900</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>40</v>
